--- a/巡检模板.xlsx
+++ b/巡检模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01 Network\07 Programming\python\NetDevops\Network_Automatic_Inspect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01 Network\07 Programming\python\Network_Automatic_Inspect\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644" tabRatio="895" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10656" tabRatio="895"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="14" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="aruba_os" sheetId="43" r:id="rId10"/>
     <sheet name="paloalto_panos" sheetId="44" r:id="rId11"/>
     <sheet name="juniper" sheetId="50" r:id="rId12"/>
+    <sheet name="linux" sheetId="51" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">assets!$A$1:$I$1</definedName>
@@ -33,115 +34,179 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>display current-configuration</t>
   </si>
   <si>
     <t>show running</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sh</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>comment
 注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>comment
 注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>show full-configuration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>username
 用户名,可选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>password
 密码,可选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>secret
 特权密码,可选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>device_type
-设备类型,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>command
+巡检命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>display lldp neighbor  brief</t>
+  </si>
+  <si>
+    <t>display device</t>
+  </si>
+  <si>
+    <t>display device power</t>
+  </si>
+  <si>
+    <t>display device power system</t>
+  </si>
+  <si>
+    <t>display health</t>
+  </si>
+  <si>
+    <t>display memory</t>
+  </si>
+  <si>
+    <t>display cpu</t>
+  </si>
+  <si>
+    <t>display interface</t>
+  </si>
+  <si>
+    <t>display interface brief</t>
+  </si>
+  <si>
+    <t>display ip int bri</t>
+  </si>
+  <si>
+    <t>display ospf peer brief</t>
+  </si>
+  <si>
+    <t>display bgp peer</t>
+  </si>
+  <si>
+    <t>display ip routing-table</t>
+  </si>
+  <si>
+    <t>display version</t>
+  </si>
+  <si>
+    <t>display patch-information</t>
+  </si>
+  <si>
+    <t>display device manufacture-info</t>
+  </si>
+  <si>
+    <t>display cpu-usage</t>
+  </si>
+  <si>
+    <t>display memory-usage</t>
+  </si>
+  <si>
+    <t>display alarm all</t>
+  </si>
+  <si>
+    <t>display logbuffer</t>
+  </si>
+  <si>
+    <t>display clock</t>
+  </si>
+  <si>
+    <t>display vrrp</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>config_file
+配置文件，可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>display hrp  state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps aux | grep celery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>port
 端口号,可选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>protocol
-连接协议,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>get config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hostname
-可选,设备名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol
+连接协议,可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -159,11 +224,11 @@
       </rPr>
       <t>必填</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1</t>
+      <t>display current-configuration</t>
     </r>
     <r>
       <rPr>
@@ -172,330 +237,72 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>92.168.0.1</t>
+      <t xml:space="preserve"> all</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>isco</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>isco</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>isco_ios</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>92.168.0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>92.168.0.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>92.168.0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>92.168.0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>92.168.0.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>92.168.0.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>92.168.0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>92.168.0.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>92.168.0.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>command
-巡检命令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_type
+设备类型,可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostname
+设备名称，可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment
+注释，可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.12</t>
+  </si>
+  <si>
+    <t>192.168.0.13</t>
+  </si>
+  <si>
+    <t>192.168.0.14</t>
+  </si>
+  <si>
+    <t>192.168.0.15</t>
+  </si>
+  <si>
+    <t>192.168.0.18</t>
+  </si>
+  <si>
+    <t>192.168.0.19</t>
+  </si>
+  <si>
+    <t>192.168.0.20</t>
+  </si>
+  <si>
+    <t>192.168.0.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.16111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.17111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -582,130 +389,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="27" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -1105,308 +915,234 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.59765625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="13.59765625" style="1"/>
+    <col min="8" max="10" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="13.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.2">
+    <row r="1" spans="1:10" ht="31.2">
       <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A1:I1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1427,15 +1163,15 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1445,7 +1181,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1469,10 +1205,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1484,7 +1220,7 @@
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
@@ -1497,8 +1233,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1509,20 +1245,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1547,10 +1321,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1559,7 +1333,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1583,14 +1357,14 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1615,10 +1389,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1628,7 +1402,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1651,10 +1425,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1664,7 +1438,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1675,10 +1449,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1690,20 +1464,220 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
 </worksheet>
 </file>
@@ -1727,20 +1701,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8"/>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1765,10 +1739,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1778,7 +1752,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1797,15 +1771,15 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1815,7 +1789,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1830,49 +1804,11 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x6587__x6863__x72b6__x6001_ xmlns="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f">初稿未完成</_x6587__x6863__x72b6__x6001_>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2040,11 +1976,49 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x6587__x6863__x72b6__x6001_ xmlns="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f">初稿未完成</_x6587__x6863__x72b6__x6001_>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2056,9 +2030,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075988A9-20C0-4BE8-A91F-94F7140E4C90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC99DC05-5E1F-4E6B-BF48-D75A6E6CB5B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2083,18 +2066,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC99DC05-5E1F-4E6B-BF48-D75A6E6CB5B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075988A9-20C0-4BE8-A91F-94F7140E4C90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/巡检模板.xlsx
+++ b/巡检模板.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>display current-configuration</t>
   </si>
@@ -279,10 +279,6 @@
   </si>
   <si>
     <t>192.168.0.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -923,7 +919,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.59765625" defaultRowHeight="15.6"/>
@@ -980,6 +976,9 @@
         <v>61</v>
       </c>
       <c r="D2" s="3"/>
+      <c r="E2" s="1">
+        <v>22</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -990,13 +989,14 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="3"/>
+      <c r="E3" s="1">
+        <v>22</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1008,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>55</v>
@@ -1025,7 +1025,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>56</v>
@@ -1042,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>57</v>
@@ -1059,10 +1059,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="3"/>
@@ -1076,10 +1076,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
@@ -1093,7 +1093,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>58</v>
@@ -1110,7 +1110,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>59</v>
@@ -1127,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>60</v>
@@ -1804,11 +1804,49 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x6587__x6863__x72b6__x6001_ xmlns="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f">初稿未完成</_x6587__x6863__x72b6__x6001_>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1976,49 +2014,11 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x6587__x6863__x72b6__x6001_ xmlns="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f">初稿未完成</_x6587__x6863__x72b6__x6001_>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2030,18 +2030,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC99DC05-5E1F-4E6B-BF48-D75A6E6CB5B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075988A9-20C0-4BE8-A91F-94F7140E4C90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2066,9 +2057,18 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075988A9-20C0-4BE8-A91F-94F7140E4C90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC99DC05-5E1F-4E6B-BF48-D75A6E6CB5B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/巡检模板.xlsx
+++ b/巡检模板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01 Network\07 Programming\python\Network_Automatic_Inspect\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F4C0E8-3340-43BB-9428-E8726A79B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10656" tabRatio="895"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="14" r:id="rId1"/>
@@ -29,12 +30,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">assets!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentManualCount="12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t>display current-configuration</t>
   </si>
@@ -257,44 +258,65 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>192.168.0.14</t>
+  </si>
+  <si>
+    <t>192.168.0.15</t>
+  </si>
+  <si>
+    <t>192.168.0.18</t>
+  </si>
+  <si>
+    <t>192.168.0.19</t>
+  </si>
+  <si>
+    <t>192.168.0.20</t>
+  </si>
+  <si>
+    <t>192.168.0.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.11113</t>
+  </si>
+  <si>
     <t>192.168.0.12</t>
-  </si>
-  <si>
-    <t>192.168.0.13</t>
-  </si>
-  <si>
-    <t>192.168.0.14</t>
-  </si>
-  <si>
-    <t>192.168.0.15</t>
-  </si>
-  <si>
-    <t>192.168.0.18</t>
-  </si>
-  <si>
-    <t>192.168.0.19</t>
-  </si>
-  <si>
-    <t>192.168.0.20</t>
-  </si>
-  <si>
-    <t>192.168.0.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.16111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.17111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get system status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.129</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin@123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortigate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -357,6 +379,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -381,7 +411,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,8 +502,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,38 +546,45 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="30" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1"/>
-    <cellStyle name="常规 11" xfId="2"/>
-    <cellStyle name="常规 12" xfId="3"/>
-    <cellStyle name="常规 13" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 2" xfId="6"/>
-    <cellStyle name="常规 2 2 2" xfId="7"/>
-    <cellStyle name="常规 2 2 3" xfId="8"/>
-    <cellStyle name="常规 2 2 4" xfId="9"/>
-    <cellStyle name="常规 2 2 5" xfId="10"/>
-    <cellStyle name="常规 2 2 6" xfId="11"/>
-    <cellStyle name="常规 2 3" xfId="12"/>
-    <cellStyle name="常规 2 4" xfId="13"/>
-    <cellStyle name="常规 2 5" xfId="14"/>
-    <cellStyle name="常规 2 6" xfId="15"/>
-    <cellStyle name="常规 2 7" xfId="16"/>
-    <cellStyle name="常规 2 8" xfId="17"/>
-    <cellStyle name="常规 3" xfId="18"/>
-    <cellStyle name="常规 4" xfId="19"/>
-    <cellStyle name="常规 5" xfId="20"/>
-    <cellStyle name="常规 6" xfId="21"/>
-    <cellStyle name="常规 6 2" xfId="22"/>
-    <cellStyle name="常规 6 3" xfId="23"/>
-    <cellStyle name="常规 6 4" xfId="24"/>
-    <cellStyle name="常规 6 5" xfId="25"/>
-    <cellStyle name="常规 6 6" xfId="26"/>
-    <cellStyle name="常规 7" xfId="27"/>
-    <cellStyle name="常规 8" xfId="28"/>
-    <cellStyle name="常规 9" xfId="29"/>
+    <cellStyle name="常规 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 11" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 12" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 13" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 2 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 2 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 2 2 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 2 2 6" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 2 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 2 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 6" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 6 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 6 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 6 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 6 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 6 6" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 7" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 8" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 9" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,23 +949,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.59765625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -972,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="3"/>
@@ -989,14 +1029,13 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="1">
-        <v>22</v>
-      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1011,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="3"/>
@@ -1028,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
@@ -1045,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="3"/>
@@ -1062,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="3"/>
@@ -1079,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
@@ -1096,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3"/>
       <c r="F9" s="3"/>
@@ -1113,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
@@ -1130,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
@@ -1139,18 +1178,42 @@
       <c r="I11" s="3"/>
       <c r="J11" s="12"/>
     </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G12" r:id="rId1" xr:uid="{B3E0E4D5-609D-4BE0-9B9E-F8C1B4D0FA0C}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -1187,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1227,7 +1290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -1265,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1303,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1339,7 +1402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -1371,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1409,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1445,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -1683,14 +1746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1708,9 +1771,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -1754,11 +1827,12 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1795,61 +1869,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x6587__x6863__x72b6__x6001_ xmlns="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f">初稿未完成</_x6587__x6863__x72b6__x6001_>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100928FD87806EB4B458A2AC536646224D1" ma:contentTypeVersion="3" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="63415daf796e11ca402f18c8ed51f77d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9" xmlns:ns3="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f26c9f3fbaa080bd09353eca2593ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9"/>
@@ -2013,31 +2040,79 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x6587__x6863__x72b6__x6001_ xmlns="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f">初稿未完成</_x6587__x6863__x72b6__x6001_>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D7DEC5-C078-44B9-9C3C-1F636A0FB7D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC99DC05-5E1F-4E6B-BF48-D75A6E6CB5B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075988A9-20C0-4BE8-A91F-94F7140E4C90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91602F63-4ED6-45AE-B2A1-B7583E05FD6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2056,19 +2131,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075988A9-20C0-4BE8-A91F-94F7140E4C90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC99DC05-5E1F-4E6B-BF48-D75A6E6CB5B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D7DEC5-C078-44B9-9C3C-1F636A0FB7D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/巡检模板.xlsx
+++ b/巡检模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01 Network\07 Programming\python\Network_Automatic_Inspect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F4C0E8-3340-43BB-9428-E8726A79B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF5166-D672-44F4-B126-8C04D66C3C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="14" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>display current-configuration</t>
   </si>
@@ -79,28 +79,6 @@
   <si>
     <t>get config</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
   </si>
   <si>
     <t>R8</t>
@@ -258,57 +236,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.14</t>
-  </si>
-  <si>
-    <t>192.168.0.15</t>
-  </si>
-  <si>
-    <t>192.168.0.18</t>
-  </si>
-  <si>
-    <t>192.168.0.19</t>
-  </si>
-  <si>
-    <t>192.168.0.20</t>
-  </si>
-  <si>
-    <t>192.168.0.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.11113</t>
-  </si>
-  <si>
-    <t>192.168.0.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>get system status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.0.129</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>admin@123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fortigate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.8.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.8.12</t>
+  </si>
+  <si>
+    <t>192.168.8.13</t>
+  </si>
+  <si>
+    <t>192.168.8.14</t>
+  </si>
+  <si>
+    <t>192.168.8.15</t>
+  </si>
+  <si>
+    <t>192.168.8.16</t>
+  </si>
+  <si>
+    <t>192.168.8.18</t>
+  </si>
+  <si>
+    <t>192.168.8.19</t>
+  </si>
+  <si>
+    <t>192.168.8.20</t>
+  </si>
+  <si>
+    <t>Cisco_R1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cisco_R2</t>
+  </si>
+  <si>
+    <t>HW_R3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW_R4</t>
+  </si>
+  <si>
+    <t>H3C_R5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3C_R6</t>
+  </si>
+  <si>
+    <t>HW_SW07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.8.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +544,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="30" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -959,37 +958,37 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.59765625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="13.59765625" style="1"/>
+    <col min="11" max="16384" width="13.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2">
+    <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
@@ -1001,24 +1000,21 @@
         <v>8</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
+      <c r="A2" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="1">
-        <v>22</v>
-      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1026,14 +1022,14 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>63</v>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3"/>
@@ -1043,14 +1039,14 @@
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>62</v>
+      <c r="C4" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="3"/>
@@ -1060,14 +1056,14 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
+      <c r="A5" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>54</v>
+      <c r="C5" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
@@ -1077,14 +1073,14 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
+      <c r="A6" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>55</v>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="3"/>
@@ -1094,14 +1090,14 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
+      <c r="A7" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>59</v>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="3"/>
@@ -1111,14 +1107,14 @@
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
+      <c r="A8" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>60</v>
+      <c r="C8" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
@@ -1128,13 +1124,13 @@
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
+      <c r="A9" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="3"/>
@@ -1145,13 +1141,13 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
+      <c r="A10" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="3"/>
@@ -1162,13 +1158,13 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
+      <c r="A11" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="3"/>
@@ -1179,35 +1175,25 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
-        <v>68</v>
+      <c r="A12" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="1">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>67</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="14"/>
       <c r="I12" s="3"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1" xr:uid="{B3E0E4D5-609D-4BE0-9B9E-F8C1B4D0FA0C}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1223,10 +1209,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1234,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1260,10 +1246,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1271,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1300,10 +1286,10 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1311,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1338,10 +1324,10 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1349,13 +1335,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1362,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1387,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1412,10 +1398,10 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1423,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1444,10 +1430,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1455,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1479,11 +1465,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1491,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1518,11 +1504,11 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1530,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1544,7 +1530,7 @@
     <row r="3" spans="1:2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1552,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1560,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1568,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1576,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1584,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1592,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1600,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1608,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1616,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1624,15 +1610,15 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1640,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1648,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1656,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1664,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1672,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1680,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1688,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1696,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1704,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1712,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1720,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1728,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1736,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1756,10 +1742,10 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1767,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1783,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1804,10 +1790,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1815,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1839,13 +1825,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
@@ -1853,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1869,11 +1855,49 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x6587__x6863__x72b6__x6001_ xmlns="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f">初稿未完成</_x6587__x6863__x72b6__x6001_>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2041,49 +2065,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x6587__x6863__x72b6__x6001_ xmlns="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f">初稿未完成</_x6587__x6863__x72b6__x6001_>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2096,18 +2082,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC99DC05-5E1F-4E6B-BF48-D75A6E6CB5B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075988A9-20C0-4BE8-A91F-94F7140E4C90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2132,9 +2109,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075988A9-20C0-4BE8-A91F-94F7140E4C90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC99DC05-5E1F-4E6B-BF48-D75A6E6CB5B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c1e9b2d-f6f5-4391-84fa-7715816b5f0f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4b7a6e08-f856-4fbd-a92d-718f0ebb94c9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
